--- a/lib/uploads/2017_1_A_NS-1.xlsx
+++ b/lib/uploads/2017_1_A_NS-1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>GYAN GANGA INTERNATIONAL SCHOOL</t>
   </si>
@@ -52,20 +52,23 @@
     <t>CLASS 1 (2017)</t>
   </si>
   <si>
-    <t>Deb</t>
+    <t>^</t>
   </si>
   <si>
-    <t>Gupta</t>
+    <t>Shreyansh Deb</t>
   </si>
   <si>
-    <t>Sharma</t>
+    <t>Prateek Gupta</t>
+  </si>
+  <si>
+    <t>Shubham Sharma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,7 +109,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,14 +128,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -251,49 +248,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -317,37 +271,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -371,15 +299,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -392,21 +319,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -509,6 +422,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -543,6 +457,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -718,14 +633,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
@@ -737,17 +652,17 @@
     <col min="8" max="8" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -757,17 +672,17 @@
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" ht="21">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -777,17 +692,17 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:16" ht="21">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -797,40 +712,40 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1"/>
-    <row r="6" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A6" s="15" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="6"/>
@@ -842,27 +757,32 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>20</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>10</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>10</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>10</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>20</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="13">
+        <f>C7+D7+E7+F7+G7</f>
+        <v>70</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -872,12 +792,12 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
         <v>19</v>
@@ -886,17 +806,17 @@
         <v>7</v>
       </c>
       <c r="E8" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F8" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G8" s="4">
         <v>7</v>
       </c>
-      <c r="H8" s="23">
-        <f>G8+F8+E8+D8+C8</f>
-        <v>52</v>
+      <c r="H8" s="13">
+        <f t="shared" ref="H8:H56" si="0">C8+D8+E8+F8+G8</f>
+        <v>45</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -907,12 +827,12 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
         <v>18</v>
@@ -929,8 +849,8 @@
       <c r="G9" s="5">
         <v>8</v>
       </c>
-      <c r="H9" s="23">
-        <f t="shared" ref="H9:H10" si="0">G9+F9+E9+D9+C9</f>
+      <c r="H9" s="13">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="I9" s="7"/>
@@ -942,12 +862,12 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
         <v>16</v>
@@ -964,7 +884,7 @@
       <c r="G10" s="5">
         <v>5</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="13">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
@@ -977,7 +897,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -985,7 +905,10 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="19"/>
+      <c r="H11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -995,7 +918,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1003,7 +926,10 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="19"/>
+      <c r="H12" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1013,7 +939,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1021,7 +947,10 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="19"/>
+      <c r="H13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -1031,7 +960,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1039,7 +968,10 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="19"/>
+      <c r="H14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1049,7 +981,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1057,7 +989,10 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="19"/>
+      <c r="H15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -1067,7 +1002,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1075,7 +1010,10 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="19"/>
+      <c r="H16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -1085,7 +1023,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1093,7 +1031,10 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="19"/>
+      <c r="H17" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -1103,7 +1044,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1111,7 +1052,10 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="19"/>
+      <c r="H18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -1121,7 +1065,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1129,7 +1073,10 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="19"/>
+      <c r="H19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -1139,7 +1086,7 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1147,7 +1094,10 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="19"/>
+      <c r="H20" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -1157,7 +1107,7 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1165,7 +1115,10 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="19"/>
+      <c r="H21" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -1175,7 +1128,7 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1183,7 +1136,10 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="19"/>
+      <c r="H22" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -1193,7 +1149,7 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1201,7 +1157,10 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="20"/>
+      <c r="H23" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -1211,7 +1170,7 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1219,7 +1178,10 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="19"/>
+      <c r="H24" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1229,7 +1191,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1237,9 +1199,12 @@
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="H25" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -1247,9 +1212,12 @@
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="H26" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1257,9 +1225,12 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="H27" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1267,9 +1238,12 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="H28" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1277,9 +1251,12 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="H29" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1287,9 +1264,12 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="21"/>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="H30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1297,9 +1277,12 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="H31" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1307,9 +1290,12 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="H32" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1317,9 +1303,12 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="H33" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1327,9 +1316,12 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="21"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="H34" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1337,9 +1329,12 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="21"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="H35" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1347,9 +1342,12 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="21"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="H36" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1357,9 +1355,12 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="H37" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1367,9 +1368,12 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="21"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="H38" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -1377,9 +1381,12 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="21"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="H39" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1387,9 +1394,12 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="21"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="H40" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1397,9 +1407,12 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="21"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="H41" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1407,9 +1420,12 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="21"/>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="H42" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -1417,9 +1433,12 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="H43" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -1427,9 +1446,12 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="21"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="H44" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -1437,9 +1459,12 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="21"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="H45" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -1447,9 +1472,12 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="12"/>
-      <c r="H46" s="21"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="H46" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -1457,9 +1485,12 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="21"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="H47" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -1467,9 +1498,12 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="21"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="H48" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -1477,9 +1511,12 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="21"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="H49" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -1487,9 +1524,12 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="12"/>
-      <c r="H50" s="21"/>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="H50" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -1497,9 +1537,12 @@
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="12"/>
-      <c r="H51" s="21"/>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="H51" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -1507,9 +1550,12 @@
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="12"/>
-      <c r="H52" s="21"/>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="H52" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -1517,9 +1563,12 @@
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="12"/>
-      <c r="H53" s="21"/>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="H53" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -1527,9 +1576,12 @@
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="12"/>
-      <c r="H54" s="21"/>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="H54" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -1537,9 +1589,12 @@
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="12"/>
-      <c r="H55" s="21"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1">
+      <c r="H55" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1547,7 +1602,10 @@
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="12"/>
-      <c r="H56" s="22"/>
+      <c r="H56" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/lib/uploads/2017_1_A_NS-1.xlsx
+++ b/lib/uploads/2017_1_A_NS-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="14805" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
   <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +815,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="13">
-        <f t="shared" ref="H8:H56" si="0">C8+D8+E8+F8+G8</f>
+        <f>SUMIF(C8:G8,"&lt;&gt;#AB")</f>
         <v>45</v>
       </c>
       <c r="I8" s="7"/>
@@ -850,7 +850,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="13">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C9:G9,"&lt;&gt;#AB")</f>
         <v>51</v>
       </c>
       <c r="I9" s="7"/>
@@ -885,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H10:H56" si="0">SUMIF(C10:G10,"&lt;&gt;#AB")</f>
         <v>44</v>
       </c>
       <c r="I10" s="7"/>
